--- a/Homeworks/Mongodb/Database Design & Questions.xlsx
+++ b/Homeworks/Mongodb/Database Design & Questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonywoo/GitHub/Aptech/nodejs-tutorials/Batch23/Homeworks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonywoo/GitHub/Aptech/nodejs-tutorials/Homeworks/Mongodb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9814BB7-2575-EE49-B33B-121E15E74EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A922A15-4DCF-784A-BB5F-691D96E9CA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHẦN I Tables" sheetId="2" r:id="rId1"/>
@@ -354,9 +354,6 @@
     <t>String</t>
   </si>
   <si>
-    <t>COLLECTION: xxx</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -385,6 +382,9 @@
   </si>
   <si>
     <t>Collection / API</t>
+  </si>
+  <si>
+    <t>COLLECTION: Categories</t>
   </si>
 </sst>
 </file>
@@ -1141,8 +1141,8 @@
   </sheetPr>
   <dimension ref="A1:Z884"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1189,13 +1189,13 @@
     </row>
     <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="98" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
       <c r="D2" s="96"/>
       <c r="E2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3541,7 +3541,7 @@
         <v>25</v>
       </c>
       <c r="C66" s="77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D66" s="78"/>
       <c r="E66" s="79"/>
@@ -26493,8 +26493,8 @@
   </sheetPr>
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26512,7 +26512,7 @@
       </c>
       <c r="C1" s="83"/>
       <c r="D1" s="83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E1" s="83"/>
       <c r="F1" s="83"/>
@@ -26702,7 +26702,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="80"/>
       <c r="D7" s="80"/>
@@ -26769,10 +26769,10 @@
         <v>58</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9" s="80"/>
       <c r="F9" s="80"/>
@@ -26805,10 +26805,10 @@
         <v>59</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" s="80"/>
       <c r="F10" s="80"/>
@@ -26841,10 +26841,10 @@
         <v>60</v>
       </c>
       <c r="C11" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="80"/>
       <c r="F11" s="80"/>
@@ -26877,10 +26877,10 @@
         <v>61</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" s="80"/>
       <c r="F12" s="80"/>
@@ -26913,10 +26913,10 @@
         <v>62</v>
       </c>
       <c r="C13" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E13" s="80"/>
       <c r="F13" s="80"/>
@@ -26949,10 +26949,10 @@
         <v>63</v>
       </c>
       <c r="C14" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14" s="80"/>
       <c r="F14" s="80"/>
@@ -26985,10 +26985,10 @@
         <v>64</v>
       </c>
       <c r="C15" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" s="80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" s="80"/>
       <c r="F15" s="80"/>
@@ -27021,10 +27021,10 @@
         <v>65</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E16" s="80"/>
       <c r="F16" s="80"/>
@@ -27057,10 +27057,10 @@
         <v>66</v>
       </c>
       <c r="C17" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E17" s="80"/>
       <c r="F17" s="80"/>
@@ -27093,10 +27093,10 @@
         <v>67</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" s="80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
@@ -27129,10 +27129,10 @@
         <v>68</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D19" s="80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
@@ -27165,10 +27165,10 @@
         <v>69</v>
       </c>
       <c r="C20" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" s="80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
@@ -27201,10 +27201,10 @@
         <v>70</v>
       </c>
       <c r="C21" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
@@ -27237,10 +27237,10 @@
         <v>71</v>
       </c>
       <c r="C22" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D22" s="80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
@@ -27273,10 +27273,10 @@
         <v>97</v>
       </c>
       <c r="C23" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D23" s="80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
@@ -27309,10 +27309,10 @@
         <v>72</v>
       </c>
       <c r="C24" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D24" s="80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
@@ -27345,10 +27345,10 @@
         <v>73</v>
       </c>
       <c r="C25" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" s="80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
@@ -27381,10 +27381,10 @@
         <v>74</v>
       </c>
       <c r="C26" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D26" s="80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
@@ -27417,10 +27417,10 @@
         <v>75</v>
       </c>
       <c r="C27" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D27" s="80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
@@ -27453,10 +27453,10 @@
         <v>76</v>
       </c>
       <c r="C28" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D28" s="80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>

--- a/Homeworks/Mongodb/Database Design & Questions.xlsx
+++ b/Homeworks/Mongodb/Database Design & Questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonywoo/GitHub/Aptech/nodejs-tutorials/Homeworks/Mongodb/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngothanhtung/GitHub/Aptech/nodejs-tutorials/Homeworks/Mongodb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A922A15-4DCF-784A-BB5F-691D96E9CA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E9535C-7359-164F-9E8A-71B4DF8D8E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHẦN I Tables" sheetId="2" r:id="rId1"/>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>CASH</t>
-  </si>
-  <si>
-    <t>CREDIT CARD / CASH</t>
   </si>
   <si>
     <t>CustomerId</t>
@@ -385,6 +382,9 @@
   </si>
   <si>
     <t>COLLECTION: Categories</t>
+  </si>
+  <si>
+    <t>CREDIT CARD / CASH / MOMO / ZALOPAY</t>
   </si>
 </sst>
 </file>
@@ -1141,8 +1141,8 @@
   </sheetPr>
   <dimension ref="A1:Z884"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1189,13 +1189,13 @@
     </row>
     <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="98" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
       <c r="D2" s="96"/>
       <c r="E2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1273,7 +1273,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
@@ -1311,7 +1311,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="8">
         <v>50</v>
@@ -1349,7 +1349,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="8">
         <v>500</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="8" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" s="96"/>
       <c r="C8" s="96"/>
@@ -1491,7 +1491,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
@@ -1529,7 +1529,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" s="19">
         <v>100</v>
@@ -1565,7 +1565,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="19">
         <v>50</v>
@@ -1603,7 +1603,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="19">
         <v>50</v>
@@ -1641,7 +1641,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="19">
         <v>500</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="102" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="96"/>
       <c r="C16" s="96"/>
@@ -1781,7 +1781,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" s="27">
         <v>50</v>
@@ -1819,7 +1819,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" s="31">
         <v>50</v>
@@ -1855,7 +1855,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D20" s="31">
         <v>50</v>
@@ -1891,7 +1891,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D21" s="31">
         <v>50</v>
@@ -1929,7 +1929,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" s="31">
         <v>500</v>
@@ -1965,7 +1965,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" s="31">
         <v>50</v>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B26" s="96"/>
       <c r="C26" s="96"/>
@@ -2143,7 +2143,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28" s="37">
         <v>50</v>
@@ -2181,7 +2181,7 @@
         <v>19</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" s="41">
         <v>50</v>
@@ -2217,7 +2217,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D30" s="41">
         <v>50</v>
@@ -2253,7 +2253,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D31" s="41">
         <v>50</v>
@@ -2291,7 +2291,7 @@
         <v>18</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" s="41">
         <v>500</v>
@@ -2327,7 +2327,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="41">
         <v>50</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="36" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" s="96"/>
       <c r="C36" s="96"/>
@@ -2505,7 +2505,7 @@
         <v>9</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D38" s="47"/>
       <c r="E38" s="48"/>
@@ -2543,7 +2543,7 @@
         <v>12</v>
       </c>
       <c r="C39" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D39" s="51">
         <v>50</v>
@@ -2691,7 +2691,7 @@
         <v>29</v>
       </c>
       <c r="C43" s="50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D43" s="54"/>
       <c r="E43" s="55"/>
@@ -2729,7 +2729,7 @@
         <v>32</v>
       </c>
       <c r="C44" s="50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D44" s="54"/>
       <c r="E44" s="55"/>
@@ -2767,7 +2767,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D45" s="54" t="s">
         <v>34</v>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="47" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="95" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B47" s="96"/>
       <c r="C47" s="96"/>
@@ -2907,7 +2907,7 @@
         <v>9</v>
       </c>
       <c r="C49" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D49" s="60"/>
       <c r="E49" s="61"/>
@@ -3021,7 +3021,7 @@
         <v>39</v>
       </c>
       <c r="C52" s="63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D52" s="67">
         <v>50</v>
@@ -3061,7 +3061,7 @@
         <v>14</v>
       </c>
       <c r="C53" s="63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D53" s="67" t="s">
         <v>34</v>
@@ -3099,7 +3099,7 @@
         <v>42</v>
       </c>
       <c r="C54" s="63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D54" s="67">
         <v>500</v>
@@ -3135,7 +3135,7 @@
         <v>43</v>
       </c>
       <c r="C55" s="63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D55" s="67">
         <v>20</v>
@@ -3146,7 +3146,7 @@
         <v>44</v>
       </c>
       <c r="H55" s="62" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="I55" s="62"/>
       <c r="J55" s="1"/>
@@ -3172,10 +3172,10 @@
         <v>8</v>
       </c>
       <c r="B56" s="62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C56" s="63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D56" s="67">
         <v>50</v>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="G56" s="62"/>
       <c r="H56" s="62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I56" s="62"/>
       <c r="J56" s="1"/>
@@ -3212,10 +3212,10 @@
         <v>9</v>
       </c>
       <c r="B57" s="62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C57" s="63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D57" s="67">
         <v>50</v>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="G57" s="62"/>
       <c r="H57" s="62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I57" s="62"/>
       <c r="J57" s="1"/>
@@ -3277,7 +3277,7 @@
     </row>
     <row r="59" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B59" s="96"/>
       <c r="C59" s="96"/>
@@ -3359,7 +3359,7 @@
         <v>9</v>
       </c>
       <c r="C61" s="72" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D61" s="73"/>
       <c r="E61" s="74"/>
@@ -3394,10 +3394,10 @@
         <v>2</v>
       </c>
       <c r="B62" s="76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C62" s="77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D62" s="78"/>
       <c r="E62" s="79"/>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="G62" s="76"/>
       <c r="H62" s="62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I62" s="76"/>
       <c r="J62" s="1"/>
@@ -3432,10 +3432,10 @@
         <v>3</v>
       </c>
       <c r="B63" s="76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C63" s="77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D63" s="78"/>
       <c r="E63" s="79"/>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="G63" s="76"/>
       <c r="H63" s="62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I63" s="76"/>
       <c r="J63" s="1"/>
@@ -3470,7 +3470,7 @@
         <v>4</v>
       </c>
       <c r="B64" s="76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C64" s="77" t="s">
         <v>26</v>
@@ -3541,7 +3541,7 @@
         <v>25</v>
       </c>
       <c r="C66" s="77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D66" s="78"/>
       <c r="E66" s="79"/>
@@ -26505,14 +26505,14 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" s="83"/>
       <c r="D1" s="83" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E1" s="83"/>
       <c r="F1" s="83"/>
@@ -26542,7 +26542,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -26574,7 +26574,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="80"/>
       <c r="D3" s="80"/>
@@ -26606,7 +26606,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="80"/>
       <c r="D4" s="80"/>
@@ -26638,7 +26638,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
@@ -26670,7 +26670,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="80"/>
       <c r="D6" s="80"/>
@@ -26702,7 +26702,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="80"/>
       <c r="D7" s="80"/>
@@ -26731,10 +26731,10 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="83"/>
       <c r="D8" s="83"/>
@@ -26766,13 +26766,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="94" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" s="80"/>
       <c r="F9" s="80"/>
@@ -26802,13 +26802,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="94" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10" s="80"/>
       <c r="F10" s="80"/>
@@ -26838,13 +26838,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11" s="80"/>
       <c r="F11" s="80"/>
@@ -26874,13 +26874,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E12" s="80"/>
       <c r="F12" s="80"/>
@@ -26910,13 +26910,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E13" s="80"/>
       <c r="F13" s="80"/>
@@ -26946,13 +26946,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14" s="80"/>
       <c r="F14" s="80"/>
@@ -26982,13 +26982,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="89" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D15" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E15" s="80"/>
       <c r="F15" s="80"/>
@@ -27018,13 +27018,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E16" s="80"/>
       <c r="F16" s="80"/>
@@ -27054,13 +27054,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="90" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17" s="80"/>
       <c r="F17" s="80"/>
@@ -27090,13 +27090,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="89" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D18" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
@@ -27126,13 +27126,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="89" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
@@ -27162,13 +27162,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="89" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
@@ -27198,13 +27198,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
@@ -27234,13 +27234,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D22" s="80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
@@ -27270,13 +27270,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
@@ -27306,13 +27306,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="87" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D24" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
@@ -27342,13 +27342,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D25" s="80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
@@ -27378,13 +27378,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="87" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" s="80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
@@ -27414,13 +27414,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="87" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D27" s="80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
@@ -27450,13 +27450,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="87" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D28" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
@@ -27486,7 +27486,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="80"/>
       <c r="D29" s="80"/>
@@ -27518,7 +27518,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="87" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" s="80"/>
       <c r="D30" s="80"/>
@@ -27550,7 +27550,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="87" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="80"/>
       <c r="D31" s="80"/>
@@ -27582,7 +27582,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="80"/>
       <c r="D32" s="80"/>
@@ -27614,7 +27614,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="80"/>
       <c r="D33" s="80"/>
@@ -27646,7 +27646,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="80"/>
       <c r="D34" s="80"/>
@@ -27678,7 +27678,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35" s="80"/>
       <c r="D35" s="80"/>
@@ -27710,7 +27710,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" s="80"/>
       <c r="D36" s="80"/>
@@ -27742,7 +27742,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" s="80"/>
       <c r="D37" s="80"/>
@@ -27774,7 +27774,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" s="80"/>
       <c r="D38" s="80"/>
@@ -27806,7 +27806,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" s="80"/>
       <c r="D39" s="80"/>
@@ -27838,7 +27838,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" s="80"/>
       <c r="D40" s="80"/>
@@ -27870,7 +27870,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C41" s="80"/>
       <c r="D41" s="80"/>
@@ -27902,7 +27902,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C42" s="80"/>
       <c r="D42" s="80"/>

--- a/Homeworks/Mongodb/Database Design & Questions.xlsx
+++ b/Homeworks/Mongodb/Database Design & Questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngothanhtung/GitHub/Aptech/nodejs-tutorials/Homeworks/Mongodb/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonywoo/GitHub/Aptech/nodejs-tutorials/Homeworks/Mongodb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E9535C-7359-164F-9E8A-71B4DF8D8E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276F4445-9302-AE41-8505-3030A6131389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHẦN I Tables" sheetId="2" r:id="rId1"/>
@@ -384,7 +384,7 @@
     <t>COLLECTION: Categories</t>
   </si>
   <si>
-    <t>CREDIT CARD / CASH / MOMO / ZALOPAY</t>
+    <t>CREDIT CARD / CASH</t>
   </si>
 </sst>
 </file>
@@ -1141,8 +1141,8 @@
   </sheetPr>
   <dimension ref="A1:Z884"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="246" zoomScaleNormal="246" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Homeworks/Mongodb/Database Design & Questions.xlsx
+++ b/Homeworks/Mongodb/Database Design & Questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonywoo/GitHub/Aptech/nodejs-tutorials/Homeworks/Mongodb/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngothanhtung/GitHub/Aptech/nodejs-tutorials/Homeworks/Mongodb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276F4445-9302-AE41-8505-3030A6131389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53767A34-62A4-F84A-837C-114E7E8B31D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="126040" yWindow="500" windowWidth="32360" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHẦN I Tables" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="117">
   <si>
     <t>No.</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>DECIMAL(18, 2)</t>
-  </si>
-  <si>
-    <t>Check Discount BETWEEN 0 AND 100</t>
   </si>
   <si>
     <t>Stock</t>
@@ -385,6 +382,9 @@
   </si>
   <si>
     <t>CREDIT CARD / CASH</t>
+  </si>
+  <si>
+    <t>Check Discount BETWEEN 0 AND 75</t>
   </si>
 </sst>
 </file>
@@ -1141,8 +1141,8 @@
   </sheetPr>
   <dimension ref="A1:Z884"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="246" zoomScaleNormal="246" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1189,13 +1189,13 @@
     </row>
     <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="98" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
       <c r="D2" s="96"/>
       <c r="E2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1273,7 +1273,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
@@ -1311,7 +1311,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="8">
         <v>50</v>
@@ -1349,7 +1349,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="8">
         <v>500</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="8" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="101" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" s="96"/>
       <c r="C8" s="96"/>
@@ -1491,7 +1491,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
@@ -1529,7 +1529,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="19">
         <v>100</v>
@@ -1565,7 +1565,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="19">
         <v>50</v>
@@ -1603,7 +1603,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="19">
         <v>50</v>
@@ -1613,7 +1613,9 @@
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="H13" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="I13" s="17"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1641,7 +1643,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="19">
         <v>500</v>
@@ -1699,7 +1701,7 @@
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" s="96"/>
       <c r="C16" s="96"/>
@@ -1781,7 +1783,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="27">
         <v>50</v>
@@ -1819,7 +1821,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="31">
         <v>50</v>
@@ -1855,7 +1857,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="31">
         <v>50</v>
@@ -1891,7 +1893,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" s="31">
         <v>50</v>
@@ -1929,7 +1931,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="31">
         <v>500</v>
@@ -1937,7 +1939,9 @@
       <c r="E22" s="32"/>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
+      <c r="H22" s="29" t="s">
+        <v>13</v>
+      </c>
       <c r="I22" s="29"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1965,7 +1969,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="31">
         <v>50</v>
@@ -2061,7 +2065,7 @@
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" s="96"/>
       <c r="C26" s="96"/>
@@ -2143,7 +2147,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28" s="37">
         <v>50</v>
@@ -2181,7 +2185,7 @@
         <v>19</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D29" s="41">
         <v>50</v>
@@ -2217,7 +2221,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D30" s="41">
         <v>50</v>
@@ -2253,7 +2257,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" s="41">
         <v>50</v>
@@ -2291,7 +2295,7 @@
         <v>18</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="41">
         <v>500</v>
@@ -2299,7 +2303,9 @@
       <c r="E32" s="42"/>
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
+      <c r="H32" s="39" t="s">
+        <v>13</v>
+      </c>
       <c r="I32" s="39"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2327,7 +2333,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="41">
         <v>50</v>
@@ -2423,7 +2429,7 @@
     </row>
     <row r="36" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" s="96"/>
       <c r="C36" s="96"/>
@@ -2505,7 +2511,7 @@
         <v>9</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D38" s="47"/>
       <c r="E38" s="48"/>
@@ -2543,7 +2549,7 @@
         <v>12</v>
       </c>
       <c r="C39" s="50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D39" s="51">
         <v>50</v>
@@ -2626,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="49" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="I41" s="49"/>
       <c r="J41" s="1"/>
@@ -2652,7 +2658,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" s="50" t="s">
         <v>26</v>
@@ -2688,19 +2694,19 @@
         <v>6</v>
       </c>
       <c r="B43" s="49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" s="50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D43" s="54"/>
       <c r="E43" s="55"/>
       <c r="F43" s="53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G43" s="49"/>
       <c r="H43" s="53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I43" s="49"/>
       <c r="J43" s="1"/>
@@ -2726,19 +2732,19 @@
         <v>7</v>
       </c>
       <c r="B44" s="49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C44" s="50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D44" s="54"/>
       <c r="E44" s="55"/>
       <c r="F44" s="53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G44" s="49"/>
       <c r="H44" s="53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I44" s="49"/>
       <c r="J44" s="1"/>
@@ -2767,10 +2773,10 @@
         <v>14</v>
       </c>
       <c r="C45" s="55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D45" s="54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E45" s="55"/>
       <c r="F45" s="53"/>
@@ -2825,7 +2831,7 @@
     </row>
     <row r="47" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B47" s="96"/>
       <c r="C47" s="96"/>
@@ -2907,7 +2913,7 @@
         <v>9</v>
       </c>
       <c r="C49" s="59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D49" s="60"/>
       <c r="E49" s="61"/>
@@ -2942,7 +2948,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C50" s="63" t="s">
         <v>22</v>
@@ -2951,10 +2957,10 @@
       <c r="E50" s="65"/>
       <c r="F50" s="66"/>
       <c r="G50" s="62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H50" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I50" s="62"/>
       <c r="J50" s="1"/>
@@ -2980,7 +2986,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="63" t="s">
         <v>22</v>
@@ -2992,7 +2998,7 @@
       <c r="F51" s="62"/>
       <c r="G51" s="62"/>
       <c r="H51" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I51" s="62"/>
       <c r="J51" s="1"/>
@@ -3018,10 +3024,10 @@
         <v>4</v>
       </c>
       <c r="B52" s="62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" s="63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D52" s="67">
         <v>50</v>
@@ -3029,10 +3035,10 @@
       <c r="E52" s="68"/>
       <c r="F52" s="66"/>
       <c r="G52" s="62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H52" s="62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I52" s="62"/>
       <c r="J52" s="1"/>
@@ -3061,10 +3067,10 @@
         <v>14</v>
       </c>
       <c r="C53" s="63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D53" s="67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E53" s="68" t="s">
         <v>15</v>
@@ -3096,10 +3102,10 @@
         <v>6</v>
       </c>
       <c r="B54" s="62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C54" s="63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D54" s="67">
         <v>500</v>
@@ -3132,10 +3138,10 @@
         <v>7</v>
       </c>
       <c r="B55" s="62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D55" s="67">
         <v>20</v>
@@ -3143,10 +3149,10 @@
       <c r="E55" s="68"/>
       <c r="F55" s="66"/>
       <c r="G55" s="62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H55" s="62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I55" s="62"/>
       <c r="J55" s="1"/>
@@ -3172,21 +3178,21 @@
         <v>8</v>
       </c>
       <c r="B56" s="62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D56" s="67">
         <v>50</v>
       </c>
       <c r="E56" s="68"/>
       <c r="F56" s="66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G56" s="62"/>
       <c r="H56" s="62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I56" s="62"/>
       <c r="J56" s="1"/>
@@ -3212,21 +3218,21 @@
         <v>9</v>
       </c>
       <c r="B57" s="62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C57" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D57" s="67">
         <v>50</v>
       </c>
       <c r="E57" s="68"/>
       <c r="F57" s="66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G57" s="62"/>
       <c r="H57" s="62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" s="62"/>
       <c r="J57" s="1"/>
@@ -3277,7 +3283,7 @@
     </row>
     <row r="59" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B59" s="96"/>
       <c r="C59" s="96"/>
@@ -3359,7 +3365,7 @@
         <v>9</v>
       </c>
       <c r="C61" s="72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D61" s="73"/>
       <c r="E61" s="74"/>
@@ -3394,19 +3400,19 @@
         <v>2</v>
       </c>
       <c r="B62" s="76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C62" s="77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D62" s="78"/>
       <c r="E62" s="79"/>
       <c r="F62" s="76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G62" s="76"/>
       <c r="H62" s="62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I62" s="76"/>
       <c r="J62" s="1"/>
@@ -3432,19 +3438,19 @@
         <v>3</v>
       </c>
       <c r="B63" s="76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C63" s="77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D63" s="78"/>
       <c r="E63" s="79"/>
       <c r="F63" s="76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G63" s="76"/>
       <c r="H63" s="62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I63" s="76"/>
       <c r="J63" s="1"/>
@@ -3470,7 +3476,7 @@
         <v>4</v>
       </c>
       <c r="B64" s="76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C64" s="77" t="s">
         <v>26</v>
@@ -3541,7 +3547,7 @@
         <v>25</v>
       </c>
       <c r="C66" s="77" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D66" s="78"/>
       <c r="E66" s="79"/>
@@ -26505,14 +26511,14 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="83"/>
       <c r="D1" s="83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E1" s="83"/>
       <c r="F1" s="83"/>
@@ -26542,7 +26548,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -26574,7 +26580,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="80"/>
       <c r="D3" s="80"/>
@@ -26606,7 +26612,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="80"/>
       <c r="D4" s="80"/>
@@ -26638,7 +26644,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
@@ -26670,7 +26676,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="80"/>
       <c r="D6" s="80"/>
@@ -26702,7 +26708,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="80"/>
       <c r="D7" s="80"/>
@@ -26731,10 +26737,10 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="83"/>
       <c r="D8" s="83"/>
@@ -26766,13 +26772,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="94" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" s="80"/>
       <c r="F9" s="80"/>
@@ -26802,13 +26808,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="94" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" s="80"/>
       <c r="F10" s="80"/>
@@ -26838,13 +26844,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="94" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E11" s="80"/>
       <c r="F11" s="80"/>
@@ -26874,13 +26880,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12" s="80"/>
       <c r="F12" s="80"/>
@@ -26910,13 +26916,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" s="80"/>
       <c r="F13" s="80"/>
@@ -26946,13 +26952,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="92" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" s="80"/>
       <c r="F14" s="80"/>
@@ -26982,13 +26988,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="89" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E15" s="80"/>
       <c r="F15" s="80"/>
@@ -27018,13 +27024,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="89" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E16" s="80"/>
       <c r="F16" s="80"/>
@@ -27054,13 +27060,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E17" s="80"/>
       <c r="F17" s="80"/>
@@ -27090,13 +27096,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="89" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
@@ -27126,13 +27132,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="89" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D19" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
@@ -27162,13 +27168,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="89" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D20" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
@@ -27198,13 +27204,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="89" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
@@ -27234,13 +27240,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="87" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" s="80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
@@ -27270,13 +27276,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D23" s="80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
@@ -27306,13 +27312,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D24" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
@@ -27342,13 +27348,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="87" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
@@ -27378,13 +27384,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D26" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
@@ -27414,13 +27420,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="87" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D27" s="80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
@@ -27450,13 +27456,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="87" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D28" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
@@ -27486,7 +27492,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="87" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="80"/>
       <c r="D29" s="80"/>
@@ -27518,7 +27524,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="80"/>
       <c r="D30" s="80"/>
@@ -27550,7 +27556,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="87" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="80"/>
       <c r="D31" s="80"/>
@@ -27582,7 +27588,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="87" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="80"/>
       <c r="D32" s="80"/>
@@ -27614,7 +27620,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="80"/>
       <c r="D33" s="80"/>
@@ -27646,7 +27652,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" s="80"/>
       <c r="D34" s="80"/>
@@ -27678,7 +27684,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="80"/>
       <c r="D35" s="80"/>
@@ -27710,7 +27716,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C36" s="80"/>
       <c r="D36" s="80"/>
@@ -27742,7 +27748,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" s="80"/>
       <c r="D37" s="80"/>
@@ -27774,7 +27780,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38" s="80"/>
       <c r="D38" s="80"/>
@@ -27806,7 +27812,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" s="80"/>
       <c r="D39" s="80"/>
@@ -27838,7 +27844,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" s="80"/>
       <c r="D40" s="80"/>
@@ -27870,7 +27876,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" s="80"/>
       <c r="D41" s="80"/>
@@ -27902,7 +27908,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42" s="80"/>
       <c r="D42" s="80"/>

--- a/Homeworks/Mongodb/Database Design & Questions.xlsx
+++ b/Homeworks/Mongodb/Database Design & Questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngothanhtung/GitHub/Aptech/nodejs-tutorials/Homeworks/Mongodb/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonywoo/GitHub/Aptech/nodejs-tutorials/Homeworks/Mongodb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53767A34-62A4-F84A-837C-114E7E8B31D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5178AF5-C49A-7F4A-B7CC-A885D71795A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="126040" yWindow="500" windowWidth="32360" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHẦN I Tables" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="118">
   <si>
     <t>No.</t>
   </si>
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t>Check Discount BETWEEN 0 AND 75</t>
+  </si>
+  <si>
+    <t>categories</t>
   </si>
 </sst>
 </file>
@@ -1141,8 +1144,8 @@
   </sheetPr>
   <dimension ref="A1:Z884"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="A27" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26499,8 +26502,8 @@
   </sheetPr>
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27390,7 +27393,7 @@
         <v>107</v>
       </c>
       <c r="D26" s="80" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>

--- a/Homeworks/Mongodb/Database Design & Questions.xlsx
+++ b/Homeworks/Mongodb/Database Design & Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonywoo/GitHub/Aptech/nodejs-tutorials/Homeworks/Mongodb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22FE6D8-6CBF-1A44-83EF-7E4257F00B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD8F6BD-670A-704B-BE9D-AC707B0E90AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHẦN I Tables" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="179">
   <si>
     <t>No.</t>
   </si>
@@ -552,12 +552,33 @@
   <si>
     <t>SA, SU</t>
   </si>
+  <si>
+    <t>8B</t>
+  </si>
+  <si>
+    <t>Hiển thị tất cả các đơn hàng có trạng thái là &lt;status&gt; có ngày tạo trong khoảng &lt;fromDate&gt; và &lt;toDate&gt;</t>
+  </si>
+  <si>
+    <t>Now</t>
+  </si>
+  <si>
+    <t>CreatedBy</t>
+  </si>
+  <si>
+    <t>UpdatedDate</t>
+  </si>
+  <si>
+    <t>UpdatedBy</t>
+  </si>
+  <si>
+    <t>IsDeleted</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -597,6 +618,12 @@
       <b/>
       <sz val="12"/>
       <name val="Cambria"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="14">
@@ -814,10 +841,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1038,24 +1066,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1075,11 +1090,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1112,6 +1123,16 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1121,11 +1142,34 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1441,10 +1485,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:Z894"/>
+  <dimension ref="A2:Z900"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97:I105"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97:I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1463,7 +1507,7 @@
   <sheetData>
     <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="131" t="s">
         <v>140</v>
       </c>
       <c r="C2" s="1"/>
@@ -1718,21 +1762,21 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95">
+      <c r="A9" s="90">
         <v>5</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1752,15 +1796,19 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="90"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1780,17 +1828,15 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="127" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1810,33 +1856,17 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="A12" s="117" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1855,26 +1885,34 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
+    <row r="13" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="11"/>
+      <c r="C13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1894,23 +1932,25 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
-        <v>2</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="17">
-        <v>100</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
+      <c r="A14" s="11">
+        <v>1</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="11"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1929,26 +1969,24 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>103</v>
       </c>
       <c r="D15" s="17">
-        <v>50</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="15"/>
+        <v>100</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1969,10 +2007,10 @@
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>103</v>
@@ -1980,9 +2018,7 @@
       <c r="D16" s="17">
         <v>50</v>
       </c>
-      <c r="E16" s="20" t="s">
-        <v>15</v>
-      </c>
+      <c r="E16" s="20"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15" t="s">
@@ -2007,23 +2043,27 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>103</v>
       </c>
       <c r="D17" s="17">
-        <v>500</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="19"/>
+        <v>50</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="15"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="H17" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="I17" s="15"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2043,16 +2083,24 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
+        <v>5</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="17">
+        <v>500</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -2072,17 +2120,15 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="94" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -2102,33 +2148,17 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>8</v>
-      </c>
+      <c r="A20" s="126" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="126"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="126"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -2147,26 +2177,34 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="22">
+    <row r="21" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="24">
-        <v>50</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
+      <c r="C21" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>8</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -2186,23 +2224,25 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26">
-        <v>2</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="28">
+      <c r="A22" s="22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="24">
         <v>50</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -2221,12 +2261,12 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="27" t="s">
         <v>103</v>
@@ -2259,10 +2299,10 @@
     </row>
     <row r="24" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C24" s="27" t="s">
         <v>103</v>
@@ -2270,9 +2310,7 @@
       <c r="D24" s="28">
         <v>50</v>
       </c>
-      <c r="E24" s="29" t="s">
-        <v>15</v>
-      </c>
+      <c r="E24" s="29"/>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
@@ -2297,23 +2335,23 @@
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>103</v>
       </c>
       <c r="D25" s="28">
-        <v>500</v>
-      </c>
-      <c r="E25" s="29"/>
+        <v>50</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
-      <c r="H25" s="26" t="s">
-        <v>13</v>
-      </c>
+      <c r="H25" s="26"/>
       <c r="I25" s="26"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2333,18 +2371,18 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" s="27" t="s">
         <v>103</v>
       </c>
       <c r="D26" s="28">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="26"/>
@@ -2373,21 +2411,23 @@
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29" t="s">
-        <v>15</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D27" s="28">
+        <v>50</v>
+      </c>
+      <c r="E27" s="29"/>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
+      <c r="H27" s="26" t="s">
+        <v>13</v>
+      </c>
       <c r="I27" s="26"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2407,16 +2447,24 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="26">
+        <v>7</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2436,17 +2484,15 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="125"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="125"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="126"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2467,32 +2513,16 @@
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="123" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="123" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="123" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="123" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="123" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="123" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="123" t="s">
-        <v>8</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="125"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2511,26 +2541,34 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30">
+    <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="32">
-        <v>50</v>
-      </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="C31" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="116" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="116" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="116" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="116" t="s">
+        <v>8</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2550,23 +2588,25 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="34">
-        <v>2</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="36">
+      <c r="A32" s="30">
+        <v>1</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="32">
         <v>50</v>
       </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2585,12 +2625,12 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="35" t="s">
         <v>103</v>
@@ -2623,10 +2663,10 @@
     </row>
     <row r="34" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C34" s="35" t="s">
         <v>103</v>
@@ -2634,9 +2674,7 @@
       <c r="D34" s="36">
         <v>50</v>
       </c>
-      <c r="E34" s="37" t="s">
-        <v>15</v>
-      </c>
+      <c r="E34" s="37"/>
       <c r="F34" s="34"/>
       <c r="G34" s="34"/>
       <c r="H34" s="34"/>
@@ -2661,23 +2699,23 @@
     </row>
     <row r="35" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" s="35" t="s">
         <v>103</v>
       </c>
       <c r="D35" s="36">
-        <v>500</v>
-      </c>
-      <c r="E35" s="37"/>
+        <v>50</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F35" s="34"/>
       <c r="G35" s="34"/>
-      <c r="H35" s="34" t="s">
-        <v>13</v>
-      </c>
+      <c r="H35" s="34"/>
       <c r="I35" s="34"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -2697,18 +2735,18 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C36" s="35" t="s">
         <v>103</v>
       </c>
       <c r="D36" s="36">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="E36" s="37"/>
       <c r="F36" s="34"/>
@@ -2737,21 +2775,23 @@
     </row>
     <row r="37" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="37" t="s">
-        <v>15</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D37" s="36">
+        <v>50</v>
+      </c>
+      <c r="E37" s="37"/>
       <c r="F37" s="34"/>
       <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
+      <c r="H37" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="I37" s="34"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -2771,16 +2811,24 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+    <row r="38" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="34">
+        <v>7</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="36"/>
+      <c r="E38" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2800,17 +2848,15 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="93"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2830,33 +2876,17 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="38" t="s">
-        <v>8</v>
-      </c>
+      <c r="A40" s="127" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="127"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="127"/>
+      <c r="H40" s="127"/>
+      <c r="I40" s="127"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2875,26 +2905,34 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="39">
+    <row r="41" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41" s="39"/>
+      <c r="C41" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="38" t="s">
+        <v>8</v>
+      </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2914,23 +2952,25 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="43">
-        <v>2</v>
-      </c>
-      <c r="B42" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="45">
-        <v>50</v>
-      </c>
-      <c r="E42" s="46"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
+      <c r="A42" s="39">
+        <v>1</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="41"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="39"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2949,26 +2989,24 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="48"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43">
-        <v>0</v>
-      </c>
-      <c r="H43" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="I43" s="43"/>
+        <v>103</v>
+      </c>
+      <c r="D43" s="45">
+        <v>50</v>
+      </c>
+      <c r="E43" s="46"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2989,10 +3027,10 @@
     </row>
     <row r="44" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C44" s="44" t="s">
         <v>26</v>
@@ -3004,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="I44" s="43"/>
       <c r="J44" s="1"/>
@@ -3027,10 +3065,10 @@
     </row>
     <row r="45" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C45" s="44" t="s">
         <v>26</v>
@@ -3041,7 +3079,9 @@
       <c r="G45" s="43">
         <v>0</v>
       </c>
-      <c r="H45" s="43"/>
+      <c r="H45" s="43" t="s">
+        <v>115</v>
+      </c>
       <c r="I45" s="43"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3061,25 +3101,23 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" s="44" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="D46" s="48"/>
       <c r="E46" s="49"/>
-      <c r="F46" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" s="43"/>
-      <c r="H46" s="47" t="s">
-        <v>30</v>
-      </c>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43">
+        <v>0</v>
+      </c>
+      <c r="H46" s="43"/>
       <c r="I46" s="43"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -3101,10 +3139,10 @@
     </row>
     <row r="47" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C47" s="44" t="s">
         <v>102</v>
@@ -3116,7 +3154,7 @@
       </c>
       <c r="G47" s="43"/>
       <c r="H47" s="47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I47" s="43"/>
       <c r="J47" s="1"/>
@@ -3138,23 +3176,25 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="98">
-        <v>8</v>
-      </c>
-      <c r="B48" s="98" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="99" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="100" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" s="99"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="98"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="98"/>
+      <c r="A48" s="43">
+        <v>7</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="48"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="43"/>
+      <c r="H48" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" s="43"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -3174,23 +3214,23 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="102">
-        <v>9</v>
-      </c>
-      <c r="B49" s="102" t="s">
-        <v>129</v>
-      </c>
-      <c r="C49" s="103" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49" s="104"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="102" t="s">
-        <v>131</v>
-      </c>
+      <c r="A49" s="93">
+        <v>8</v>
+      </c>
+      <c r="B49" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="94"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="93"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -3210,21 +3250,23 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="102">
-        <v>10</v>
-      </c>
-      <c r="B50" s="102" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="106" t="s">
-        <v>103</v>
-      </c>
-      <c r="D50" s="104"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="102"/>
+      <c r="A50" s="97">
+        <v>9</v>
+      </c>
+      <c r="B50" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="98" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="99"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="97" t="s">
+        <v>131</v>
+      </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -3244,23 +3286,21 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="102">
-        <v>11</v>
-      </c>
-      <c r="B51" s="102" t="s">
-        <v>137</v>
-      </c>
-      <c r="C51" s="103" t="s">
-        <v>138</v>
-      </c>
-      <c r="D51" s="104"/>
-      <c r="E51" s="103"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="105"/>
-      <c r="I51" s="102" t="s">
-        <v>139</v>
-      </c>
+      <c r="A51" s="97">
+        <v>10</v>
+      </c>
+      <c r="B51" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="101" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="99"/>
+      <c r="E51" s="98"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="97"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="97"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -3279,16 +3319,24 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+    <row r="52" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="97">
+        <v>11</v>
+      </c>
+      <c r="B52" s="97" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="99"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="97"/>
+      <c r="H52" s="100"/>
+      <c r="I52" s="97" t="s">
+        <v>139</v>
+      </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -3308,17 +3356,15 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53" s="91"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="91"/>
-      <c r="E53" s="91"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -3338,33 +3384,17 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="H54" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" s="51" t="s">
-        <v>8</v>
-      </c>
+      <c r="A54" s="128" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="129"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -3383,26 +3413,34 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="52">
+    <row r="55" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="D55" s="54"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55" s="52"/>
+      <c r="C55" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" s="51" t="s">
+        <v>8</v>
+      </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -3422,25 +3460,25 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="56">
-        <v>2</v>
-      </c>
-      <c r="B56" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="58"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="H56" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="I56" s="56"/>
+      <c r="A56" s="52">
+        <v>1</v>
+      </c>
+      <c r="B56" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="54"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" s="52"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -3459,22 +3497,22 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B57" s="56" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C57" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="61"/>
-      <c r="E57" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="56" t="s">
+        <v>35</v>
+      </c>
       <c r="H57" s="56" t="s">
         <v>36</v>
       </c>
@@ -3497,26 +3535,24 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B58" s="56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C58" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="D58" s="61">
-        <v>50</v>
-      </c>
-      <c r="E58" s="62"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="56" t="s">
-        <v>39</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D58" s="61"/>
+      <c r="E58" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
       <c r="H58" s="56" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I58" s="56"/>
       <c r="J58" s="1"/>
@@ -3539,23 +3575,25 @@
     </row>
     <row r="59" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B59" s="56" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C59" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="D59" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" s="62" t="s">
-        <v>15</v>
-      </c>
+      <c r="D59" s="61">
+        <v>50</v>
+      </c>
+      <c r="E59" s="62"/>
       <c r="F59" s="60"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
+      <c r="G59" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="H59" s="56" t="s">
+        <v>40</v>
+      </c>
       <c r="I59" s="56"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -3577,18 +3615,20 @@
     </row>
     <row r="60" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B60" s="56" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C60" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="D60" s="61">
-        <v>500</v>
-      </c>
-      <c r="E60" s="62"/>
+      <c r="D60" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="62" t="s">
+        <v>15</v>
+      </c>
       <c r="F60" s="60"/>
       <c r="G60" s="56"/>
       <c r="H60" s="56"/>
@@ -3613,25 +3653,21 @@
     </row>
     <row r="61" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B61" s="56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C61" s="57" t="s">
         <v>103</v>
       </c>
       <c r="D61" s="61">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="E61" s="62"/>
       <c r="F61" s="60"/>
-      <c r="G61" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="H61" s="56" t="s">
-        <v>114</v>
-      </c>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
       <c r="I61" s="56"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -3653,24 +3689,24 @@
     </row>
     <row r="62" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B62" s="56" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C62" s="57" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D62" s="61">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E62" s="62"/>
-      <c r="F62" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="G62" s="56"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="56" t="s">
+        <v>43</v>
+      </c>
       <c r="H62" s="56" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="I62" s="56"/>
       <c r="J62" s="1"/>
@@ -3693,10 +3729,10 @@
     </row>
     <row r="63" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="56">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B63" s="56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C63" s="57" t="s">
         <v>102</v>
@@ -3710,7 +3746,7 @@
       </c>
       <c r="G63" s="56"/>
       <c r="H63" s="56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I63" s="56"/>
       <c r="J63" s="1"/>
@@ -3733,19 +3769,25 @@
     </row>
     <row r="64" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="56">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B64" s="56" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="C64" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="D64" s="61"/>
+        <v>102</v>
+      </c>
+      <c r="D64" s="61">
+        <v>50</v>
+      </c>
       <c r="E64" s="62"/>
-      <c r="F64" s="60"/>
+      <c r="F64" s="60" t="s">
+        <v>29</v>
+      </c>
       <c r="G64" s="56"/>
-      <c r="H64" s="56"/>
+      <c r="H64" s="56" t="s">
+        <v>47</v>
+      </c>
       <c r="I64" s="56"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -3767,10 +3809,10 @@
     </row>
     <row r="65" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="56">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B65" s="56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C65" s="57" t="s">
         <v>133</v>
@@ -3801,10 +3843,10 @@
     </row>
     <row r="66" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="56">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B66" s="56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C66" s="57" t="s">
         <v>133</v>
@@ -3833,16 +3875,22 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
+    <row r="67" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="56">
+        <v>13</v>
+      </c>
+      <c r="B67" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D67" s="61"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -3862,17 +3910,15 @@
       <c r="Z67" s="1"/>
     </row>
     <row r="68" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="90" t="s">
-        <v>101</v>
-      </c>
-      <c r="B68" s="91"/>
-      <c r="C68" s="91"/>
-      <c r="D68" s="91"/>
-      <c r="E68" s="91"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="63"/>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -3892,33 +3938,17 @@
       <c r="Z68" s="1"/>
     </row>
     <row r="69" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="G69" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="H69" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="I69" s="64" t="s">
-        <v>8</v>
-      </c>
+      <c r="A69" s="130" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="129"/>
+      <c r="C69" s="129"/>
+      <c r="D69" s="129"/>
+      <c r="E69" s="129"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="63"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -3937,26 +3967,34 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="65">
+    <row r="70" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="D70" s="67"/>
-      <c r="E70" s="68"/>
-      <c r="F70" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="69"/>
-      <c r="H70" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="I70" s="69"/>
+      <c r="C70" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="I70" s="64" t="s">
+        <v>8</v>
+      </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -3976,25 +4014,25 @@
       <c r="Z70" s="1"/>
     </row>
     <row r="71" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="70">
-        <v>2</v>
-      </c>
-      <c r="B71" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="C71" s="71" t="s">
+      <c r="A71" s="65">
+        <v>1</v>
+      </c>
+      <c r="B71" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="D71" s="72"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="G71" s="70"/>
-      <c r="H71" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="I71" s="70"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="69"/>
+      <c r="H71" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" s="69"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -4015,10 +4053,10 @@
     </row>
     <row r="72" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B72" s="70" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C72" s="71" t="s">
         <v>102</v>
@@ -4030,7 +4068,7 @@
       </c>
       <c r="G72" s="70"/>
       <c r="H72" s="56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I72" s="70"/>
       <c r="J72" s="1"/>
@@ -4053,19 +4091,23 @@
     </row>
     <row r="73" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B73" s="70" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C73" s="71" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="D73" s="72"/>
       <c r="E73" s="73"/>
-      <c r="F73" s="70"/>
+      <c r="F73" s="70" t="s">
+        <v>29</v>
+      </c>
       <c r="G73" s="70"/>
-      <c r="H73" s="56"/>
+      <c r="H73" s="56" t="s">
+        <v>51</v>
+      </c>
       <c r="I73" s="70"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -4087,10 +4129,10 @@
     </row>
     <row r="74" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B74" s="70" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C74" s="71" t="s">
         <v>26</v>
@@ -4121,13 +4163,13 @@
     </row>
     <row r="75" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B75" s="70" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C75" s="71" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="D75" s="72"/>
       <c r="E75" s="73"/>
@@ -4153,46 +4195,50 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="74"/>
-      <c r="B76" s="74"/>
-      <c r="C76" s="74"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="74"/>
-      <c r="H76" s="74"/>
-      <c r="I76" s="74"/>
-      <c r="J76" s="74"/>
-      <c r="K76" s="74"/>
-      <c r="L76" s="74"/>
-      <c r="M76" s="74"/>
-      <c r="N76" s="74"/>
-      <c r="O76" s="74"/>
-      <c r="P76" s="74"/>
-      <c r="Q76" s="74"/>
-      <c r="R76" s="74"/>
-      <c r="S76" s="74"/>
-      <c r="T76" s="74"/>
-      <c r="U76" s="74"/>
-      <c r="V76" s="74"/>
-      <c r="W76" s="74"/>
-      <c r="X76" s="74"/>
-      <c r="Y76" s="74"/>
-      <c r="Z76" s="74"/>
+    <row r="76" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="70">
+        <v>6</v>
+      </c>
+      <c r="B76" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" s="72"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="70"/>
+      <c r="G76" s="70"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="70"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
     </row>
     <row r="77" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="107" t="s">
-        <v>117</v>
-      </c>
-      <c r="B77" s="108"/>
-      <c r="C77" s="108"/>
-      <c r="D77" s="108"/>
-      <c r="E77" s="108"/>
-      <c r="F77" s="109"/>
-      <c r="G77" s="109"/>
-      <c r="H77" s="97"/>
-      <c r="I77" s="109"/>
+      <c r="A77" s="74"/>
+      <c r="B77" s="74"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="74"/>
+      <c r="H77" s="74"/>
+      <c r="I77" s="74"/>
       <c r="J77" s="74"/>
       <c r="K77" s="74"/>
       <c r="L77" s="74"/>
@@ -4212,33 +4258,17 @@
       <c r="Z77" s="74"/>
     </row>
     <row r="78" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="110" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" s="110" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="110" t="s">
-        <v>3</v>
-      </c>
-      <c r="E78" s="110" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G78" s="110" t="s">
-        <v>6</v>
-      </c>
-      <c r="H78" s="111" t="s">
-        <v>7</v>
-      </c>
-      <c r="I78" s="110" t="s">
-        <v>8</v>
-      </c>
+      <c r="A78" s="121" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" s="122"/>
+      <c r="C78" s="122"/>
+      <c r="D78" s="122"/>
+      <c r="E78" s="122"/>
+      <c r="F78" s="102"/>
+      <c r="G78" s="102"/>
+      <c r="H78" s="92"/>
+      <c r="I78" s="102"/>
       <c r="J78" s="74"/>
       <c r="K78" s="74"/>
       <c r="L78" s="74"/>
@@ -4258,25 +4288,33 @@
       <c r="Z78" s="74"/>
     </row>
     <row r="79" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="112">
+      <c r="A79" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B79" s="112" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="113" t="s">
-        <v>102</v>
-      </c>
-      <c r="D79" s="114"/>
-      <c r="E79" s="115"/>
-      <c r="F79" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="116"/>
-      <c r="H79" s="117" t="s">
-        <v>11</v>
-      </c>
-      <c r="I79" s="116"/>
+      <c r="C79" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="103" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" s="104" t="s">
+        <v>7</v>
+      </c>
+      <c r="I79" s="103" t="s">
+        <v>8</v>
+      </c>
       <c r="J79" s="74"/>
       <c r="K79" s="74"/>
       <c r="L79" s="74"/>
@@ -4296,21 +4334,25 @@
       <c r="Z79" s="74"/>
     </row>
     <row r="80" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="118">
-        <v>2</v>
-      </c>
-      <c r="B80" s="118" t="s">
-        <v>118</v>
-      </c>
-      <c r="C80" s="119" t="s">
-        <v>103</v>
-      </c>
-      <c r="D80" s="120"/>
-      <c r="E80" s="121"/>
-      <c r="F80" s="118"/>
-      <c r="G80" s="118"/>
-      <c r="H80" s="122"/>
-      <c r="I80" s="118"/>
+      <c r="A80" s="105">
+        <v>1</v>
+      </c>
+      <c r="B80" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="D80" s="107"/>
+      <c r="E80" s="108"/>
+      <c r="F80" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="109"/>
+      <c r="H80" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" s="109"/>
       <c r="J80" s="74"/>
       <c r="K80" s="74"/>
       <c r="L80" s="74"/>
@@ -4330,23 +4372,21 @@
       <c r="Z80" s="74"/>
     </row>
     <row r="81" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="118">
-        <v>3</v>
-      </c>
-      <c r="B81" s="118" t="s">
-        <v>119</v>
-      </c>
-      <c r="C81" s="119" t="s">
+      <c r="A81" s="111">
+        <v>2</v>
+      </c>
+      <c r="B81" s="111" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="D81" s="120"/>
-      <c r="E81" s="121" t="s">
-        <v>121</v>
-      </c>
-      <c r="F81" s="118"/>
-      <c r="G81" s="118"/>
-      <c r="H81" s="122"/>
-      <c r="I81" s="118"/>
+      <c r="D81" s="113"/>
+      <c r="E81" s="114"/>
+      <c r="F81" s="111"/>
+      <c r="G81" s="111"/>
+      <c r="H81" s="115"/>
+      <c r="I81" s="111"/>
       <c r="J81" s="74"/>
       <c r="K81" s="74"/>
       <c r="L81" s="74"/>
@@ -4366,21 +4406,23 @@
       <c r="Z81" s="74"/>
     </row>
     <row r="82" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="118">
-        <v>4</v>
-      </c>
-      <c r="B82" s="118" t="s">
-        <v>120</v>
-      </c>
-      <c r="C82" s="119" t="s">
+      <c r="A82" s="111">
+        <v>3</v>
+      </c>
+      <c r="B82" s="111" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="D82" s="120"/>
-      <c r="E82" s="121"/>
-      <c r="F82" s="118"/>
-      <c r="G82" s="118"/>
-      <c r="H82" s="122"/>
-      <c r="I82" s="118"/>
+      <c r="D82" s="113"/>
+      <c r="E82" s="114" t="s">
+        <v>121</v>
+      </c>
+      <c r="F82" s="111"/>
+      <c r="G82" s="111"/>
+      <c r="H82" s="115"/>
+      <c r="I82" s="111"/>
       <c r="J82" s="74"/>
       <c r="K82" s="74"/>
       <c r="L82" s="74"/>
@@ -4400,21 +4442,21 @@
       <c r="Z82" s="74"/>
     </row>
     <row r="83" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="118">
-        <v>5</v>
-      </c>
-      <c r="B83" s="118" t="s">
-        <v>123</v>
-      </c>
-      <c r="C83" s="119" t="s">
+      <c r="A83" s="111">
+        <v>4</v>
+      </c>
+      <c r="B83" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="D83" s="120"/>
-      <c r="E83" s="121"/>
-      <c r="F83" s="118"/>
-      <c r="G83" s="118"/>
-      <c r="H83" s="122"/>
-      <c r="I83" s="118"/>
+      <c r="D83" s="113"/>
+      <c r="E83" s="114"/>
+      <c r="F83" s="111"/>
+      <c r="G83" s="111"/>
+      <c r="H83" s="115"/>
+      <c r="I83" s="111"/>
       <c r="J83" s="74"/>
       <c r="K83" s="74"/>
       <c r="L83" s="74"/>
@@ -4434,23 +4476,21 @@
       <c r="Z83" s="74"/>
     </row>
     <row r="84" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="118">
-        <v>6</v>
-      </c>
-      <c r="B84" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="C84" s="119" t="s">
-        <v>125</v>
-      </c>
-      <c r="D84" s="120"/>
-      <c r="E84" s="121"/>
-      <c r="F84" s="118"/>
-      <c r="G84" s="118"/>
-      <c r="H84" s="122"/>
-      <c r="I84" s="118" t="s">
-        <v>126</v>
-      </c>
+      <c r="A84" s="111">
+        <v>5</v>
+      </c>
+      <c r="B84" s="111" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="D84" s="113"/>
+      <c r="E84" s="114"/>
+      <c r="F84" s="111"/>
+      <c r="G84" s="111"/>
+      <c r="H84" s="115"/>
+      <c r="I84" s="111"/>
       <c r="J84" s="74"/>
       <c r="K84" s="74"/>
       <c r="L84" s="74"/>
@@ -4470,21 +4510,23 @@
       <c r="Z84" s="74"/>
     </row>
     <row r="85" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="118">
-        <v>7</v>
-      </c>
-      <c r="B85" s="118" t="s">
-        <v>127</v>
-      </c>
-      <c r="C85" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="D85" s="120"/>
-      <c r="E85" s="121"/>
-      <c r="F85" s="118"/>
-      <c r="G85" s="118"/>
-      <c r="H85" s="122"/>
-      <c r="I85" s="118"/>
+      <c r="A85" s="111">
+        <v>6</v>
+      </c>
+      <c r="B85" s="111" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85" s="112" t="s">
+        <v>125</v>
+      </c>
+      <c r="D85" s="113"/>
+      <c r="E85" s="114"/>
+      <c r="F85" s="111"/>
+      <c r="G85" s="111"/>
+      <c r="H85" s="115"/>
+      <c r="I85" s="111" t="s">
+        <v>126</v>
+      </c>
       <c r="J85" s="74"/>
       <c r="K85" s="74"/>
       <c r="L85" s="74"/>
@@ -4503,46 +4545,50 @@
       <c r="Y85" s="74"/>
       <c r="Z85" s="74"/>
     </row>
-    <row r="86" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
-      <c r="R86" s="1"/>
-      <c r="S86" s="1"/>
-      <c r="T86" s="1"/>
-      <c r="U86" s="1"/>
-      <c r="V86" s="1"/>
-      <c r="W86" s="1"/>
-      <c r="X86" s="1"/>
-      <c r="Y86" s="1"/>
-      <c r="Z86" s="1"/>
+    <row r="86" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="111">
+        <v>7</v>
+      </c>
+      <c r="B86" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="C86" s="112" t="s">
+        <v>128</v>
+      </c>
+      <c r="D86" s="113"/>
+      <c r="E86" s="114"/>
+      <c r="F86" s="111"/>
+      <c r="G86" s="111"/>
+      <c r="H86" s="115"/>
+      <c r="I86" s="111"/>
+      <c r="J86" s="74"/>
+      <c r="K86" s="74"/>
+      <c r="L86" s="74"/>
+      <c r="M86" s="74"/>
+      <c r="N86" s="74"/>
+      <c r="O86" s="74"/>
+      <c r="P86" s="74"/>
+      <c r="Q86" s="74"/>
+      <c r="R86" s="74"/>
+      <c r="S86" s="74"/>
+      <c r="T86" s="74"/>
+      <c r="U86" s="74"/>
+      <c r="V86" s="74"/>
+      <c r="W86" s="74"/>
+      <c r="X86" s="74"/>
+      <c r="Y86" s="74"/>
+      <c r="Z86" s="74"/>
     </row>
     <row r="87" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="107" t="s">
-        <v>122</v>
-      </c>
-      <c r="B87" s="108"/>
-      <c r="C87" s="108"/>
-      <c r="D87" s="108"/>
-      <c r="E87" s="108"/>
-      <c r="F87" s="109"/>
-      <c r="G87" s="109"/>
-      <c r="H87" s="97"/>
-      <c r="I87" s="109"/>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
@@ -4562,33 +4608,17 @@
       <c r="Z87" s="1"/>
     </row>
     <row r="88" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="110" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" s="110" t="s">
-        <v>2</v>
-      </c>
-      <c r="D88" s="110" t="s">
-        <v>3</v>
-      </c>
-      <c r="E88" s="110" t="s">
-        <v>4</v>
-      </c>
-      <c r="F88" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G88" s="110" t="s">
-        <v>6</v>
-      </c>
-      <c r="H88" s="111" t="s">
-        <v>7</v>
-      </c>
-      <c r="I88" s="110" t="s">
-        <v>8</v>
-      </c>
+      <c r="A88" s="121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B88" s="122"/>
+      <c r="C88" s="122"/>
+      <c r="D88" s="122"/>
+      <c r="E88" s="122"/>
+      <c r="F88" s="102"/>
+      <c r="G88" s="102"/>
+      <c r="H88" s="92"/>
+      <c r="I88" s="102"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
@@ -4608,25 +4638,33 @@
       <c r="Z88" s="1"/>
     </row>
     <row r="89" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="112">
+      <c r="A89" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B89" s="112" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="113" t="s">
-        <v>102</v>
-      </c>
-      <c r="D89" s="114"/>
-      <c r="E89" s="115"/>
-      <c r="F89" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="116"/>
-      <c r="H89" s="117" t="s">
-        <v>11</v>
-      </c>
-      <c r="I89" s="116"/>
+      <c r="C89" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="103" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" s="104" t="s">
+        <v>7</v>
+      </c>
+      <c r="I89" s="103" t="s">
+        <v>8</v>
+      </c>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
@@ -4646,21 +4684,25 @@
       <c r="Z89" s="1"/>
     </row>
     <row r="90" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="118">
-        <v>2</v>
-      </c>
-      <c r="B90" s="118" t="s">
-        <v>118</v>
-      </c>
-      <c r="C90" s="119" t="s">
-        <v>103</v>
-      </c>
-      <c r="D90" s="120"/>
-      <c r="E90" s="121"/>
-      <c r="F90" s="118"/>
-      <c r="G90" s="118"/>
-      <c r="H90" s="122"/>
-      <c r="I90" s="118"/>
+      <c r="A90" s="105">
+        <v>1</v>
+      </c>
+      <c r="B90" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="D90" s="107"/>
+      <c r="E90" s="108"/>
+      <c r="F90" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="109"/>
+      <c r="H90" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="I90" s="109"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
@@ -4680,23 +4722,21 @@
       <c r="Z90" s="1"/>
     </row>
     <row r="91" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="118">
-        <v>3</v>
-      </c>
-      <c r="B91" s="118" t="s">
-        <v>119</v>
-      </c>
-      <c r="C91" s="119" t="s">
+      <c r="A91" s="111">
+        <v>2</v>
+      </c>
+      <c r="B91" s="111" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="D91" s="120"/>
-      <c r="E91" s="121" t="s">
-        <v>121</v>
-      </c>
-      <c r="F91" s="118"/>
-      <c r="G91" s="118"/>
-      <c r="H91" s="122"/>
-      <c r="I91" s="118"/>
+      <c r="D91" s="113"/>
+      <c r="E91" s="114"/>
+      <c r="F91" s="111"/>
+      <c r="G91" s="111"/>
+      <c r="H91" s="115"/>
+      <c r="I91" s="111"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
@@ -4716,21 +4756,23 @@
       <c r="Z91" s="1"/>
     </row>
     <row r="92" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="118">
-        <v>4</v>
-      </c>
-      <c r="B92" s="118" t="s">
-        <v>120</v>
-      </c>
-      <c r="C92" s="119" t="s">
+      <c r="A92" s="111">
+        <v>3</v>
+      </c>
+      <c r="B92" s="111" t="s">
+        <v>119</v>
+      </c>
+      <c r="C92" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="D92" s="120"/>
-      <c r="E92" s="121"/>
-      <c r="F92" s="118"/>
-      <c r="G92" s="118"/>
-      <c r="H92" s="122"/>
-      <c r="I92" s="118"/>
+      <c r="D92" s="113"/>
+      <c r="E92" s="114" t="s">
+        <v>121</v>
+      </c>
+      <c r="F92" s="111"/>
+      <c r="G92" s="111"/>
+      <c r="H92" s="115"/>
+      <c r="I92" s="111"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
@@ -4750,21 +4792,21 @@
       <c r="Z92" s="1"/>
     </row>
     <row r="93" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="118">
-        <v>5</v>
-      </c>
-      <c r="B93" s="118" t="s">
-        <v>123</v>
-      </c>
-      <c r="C93" s="119" t="s">
+      <c r="A93" s="111">
+        <v>4</v>
+      </c>
+      <c r="B93" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="C93" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="D93" s="120"/>
-      <c r="E93" s="121"/>
-      <c r="F93" s="118"/>
-      <c r="G93" s="118"/>
-      <c r="H93" s="122"/>
-      <c r="I93" s="118"/>
+      <c r="D93" s="113"/>
+      <c r="E93" s="114"/>
+      <c r="F93" s="111"/>
+      <c r="G93" s="111"/>
+      <c r="H93" s="115"/>
+      <c r="I93" s="111"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
@@ -4784,23 +4826,21 @@
       <c r="Z93" s="1"/>
     </row>
     <row r="94" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="118">
-        <v>6</v>
-      </c>
-      <c r="B94" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="C94" s="119" t="s">
-        <v>125</v>
-      </c>
-      <c r="D94" s="120"/>
-      <c r="E94" s="121"/>
-      <c r="F94" s="118"/>
-      <c r="G94" s="118"/>
-      <c r="H94" s="122"/>
-      <c r="I94" s="118" t="s">
-        <v>126</v>
-      </c>
+      <c r="A94" s="111">
+        <v>5</v>
+      </c>
+      <c r="B94" s="111" t="s">
+        <v>123</v>
+      </c>
+      <c r="C94" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="D94" s="113"/>
+      <c r="E94" s="114"/>
+      <c r="F94" s="111"/>
+      <c r="G94" s="111"/>
+      <c r="H94" s="115"/>
+      <c r="I94" s="111"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
@@ -4819,268 +4859,250 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="118">
+    <row r="95" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="111">
+        <v>6</v>
+      </c>
+      <c r="B95" s="111" t="s">
+        <v>124</v>
+      </c>
+      <c r="C95" s="112" t="s">
+        <v>125</v>
+      </c>
+      <c r="D95" s="113"/>
+      <c r="E95" s="114"/>
+      <c r="F95" s="111"/>
+      <c r="G95" s="111"/>
+      <c r="H95" s="115"/>
+      <c r="I95" s="111" t="s">
+        <v>126</v>
+      </c>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
+    </row>
+    <row r="96" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="111">
         <v>7</v>
       </c>
-      <c r="B95" s="118" t="s">
+      <c r="B96" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="C95" s="119" t="s">
+      <c r="C96" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="D95" s="120"/>
-      <c r="E95" s="121"/>
-      <c r="F95" s="118"/>
-      <c r="G95" s="118"/>
-      <c r="H95" s="122"/>
-      <c r="I95" s="118"/>
-      <c r="J95" s="74"/>
-      <c r="K95" s="74"/>
-      <c r="L95" s="74"/>
-      <c r="M95" s="74"/>
-      <c r="N95" s="74"/>
-      <c r="O95" s="74"/>
-      <c r="P95" s="74"/>
-      <c r="Q95" s="74"/>
-      <c r="R95" s="74"/>
-      <c r="S95" s="74"/>
-      <c r="T95" s="74"/>
-      <c r="U95" s="74"/>
-      <c r="V95" s="74"/>
-      <c r="W95" s="74"/>
-      <c r="X95" s="74"/>
-      <c r="Y95" s="74"/>
-      <c r="Z95" s="74"/>
-    </row>
-    <row r="96" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="1"/>
-      <c r="R96" s="1"/>
-      <c r="S96" s="1"/>
-      <c r="T96" s="1"/>
-      <c r="U96" s="1"/>
-      <c r="V96" s="1"/>
-      <c r="W96" s="1"/>
-      <c r="X96" s="1"/>
-      <c r="Y96" s="1"/>
-      <c r="Z96" s="1"/>
-    </row>
-    <row r="97" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="107" t="s">
-        <v>141</v>
-      </c>
-      <c r="B97" s="108"/>
-      <c r="C97" s="108"/>
-      <c r="D97" s="108"/>
-      <c r="E97" s="108"/>
-      <c r="F97" s="109"/>
-      <c r="G97" s="109"/>
-      <c r="H97" s="97"/>
-      <c r="I97" s="109"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
-      <c r="R97" s="1"/>
-      <c r="S97" s="1"/>
-      <c r="T97" s="1"/>
-      <c r="U97" s="1"/>
-      <c r="V97" s="1"/>
-      <c r="W97" s="1"/>
-      <c r="X97" s="1"/>
-      <c r="Y97" s="1"/>
-      <c r="Z97" s="1"/>
-    </row>
-    <row r="98" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="110" t="s">
-        <v>1</v>
-      </c>
-      <c r="C98" s="110" t="s">
-        <v>2</v>
-      </c>
-      <c r="D98" s="110" t="s">
-        <v>3</v>
-      </c>
-      <c r="E98" s="110" t="s">
-        <v>4</v>
-      </c>
-      <c r="F98" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G98" s="110" t="s">
-        <v>6</v>
-      </c>
-      <c r="H98" s="111" t="s">
-        <v>7</v>
-      </c>
-      <c r="I98" s="110" t="s">
+      <c r="D96" s="113"/>
+      <c r="E96" s="114"/>
+      <c r="F96" s="111"/>
+      <c r="G96" s="111"/>
+      <c r="H96" s="115"/>
+      <c r="I96" s="111"/>
+      <c r="J96" s="74"/>
+      <c r="K96" s="74"/>
+      <c r="L96" s="74"/>
+      <c r="M96" s="74"/>
+      <c r="N96" s="74"/>
+      <c r="O96" s="74"/>
+      <c r="P96" s="74"/>
+      <c r="Q96" s="74"/>
+      <c r="R96" s="74"/>
+      <c r="S96" s="74"/>
+      <c r="T96" s="74"/>
+      <c r="U96" s="74"/>
+      <c r="V96" s="74"/>
+      <c r="W96" s="74"/>
+      <c r="X96" s="74"/>
+      <c r="Y96" s="74"/>
+      <c r="Z96" s="74"/>
+    </row>
+    <row r="97" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="132">
         <v>8</v>
       </c>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
-      <c r="R98" s="1"/>
-      <c r="S98" s="1"/>
-      <c r="T98" s="1"/>
-      <c r="U98" s="1"/>
-      <c r="V98" s="1"/>
-      <c r="W98" s="1"/>
-      <c r="X98" s="1"/>
-      <c r="Y98" s="1"/>
-      <c r="Z98" s="1"/>
-    </row>
-    <row r="99" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="112">
-        <v>1</v>
-      </c>
-      <c r="B99" s="112" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" s="113" t="s">
+      <c r="B97" s="132" t="s">
+        <v>34</v>
+      </c>
+      <c r="C97" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="D97" s="134"/>
+      <c r="E97" s="135"/>
+      <c r="F97" s="132"/>
+      <c r="G97" s="132" t="s">
+        <v>174</v>
+      </c>
+      <c r="H97" s="136"/>
+      <c r="I97" s="132"/>
+      <c r="J97" s="74"/>
+      <c r="K97" s="74"/>
+      <c r="L97" s="74"/>
+      <c r="M97" s="74"/>
+      <c r="N97" s="74"/>
+      <c r="O97" s="74"/>
+      <c r="P97" s="74"/>
+      <c r="Q97" s="74"/>
+      <c r="R97" s="74"/>
+      <c r="S97" s="74"/>
+      <c r="T97" s="74"/>
+      <c r="U97" s="74"/>
+      <c r="V97" s="74"/>
+      <c r="W97" s="74"/>
+      <c r="X97" s="74"/>
+      <c r="Y97" s="74"/>
+      <c r="Z97" s="74"/>
+    </row>
+    <row r="98" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="132"/>
+      <c r="B98" s="132" t="s">
+        <v>175</v>
+      </c>
+      <c r="C98" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="D99" s="114"/>
-      <c r="E99" s="115"/>
-      <c r="F99" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="116"/>
-      <c r="H99" s="117" t="s">
-        <v>11</v>
-      </c>
-      <c r="I99" s="116"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
-      <c r="R99" s="1"/>
-      <c r="S99" s="1"/>
-      <c r="T99" s="1"/>
-      <c r="U99" s="1"/>
-      <c r="V99" s="1"/>
-      <c r="W99" s="1"/>
-      <c r="X99" s="1"/>
-      <c r="Y99" s="1"/>
-      <c r="Z99" s="1"/>
-    </row>
-    <row r="100" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="118">
-        <v>2</v>
-      </c>
-      <c r="B100" s="118" t="s">
-        <v>16</v>
-      </c>
-      <c r="C100" s="119" t="s">
-        <v>103</v>
-      </c>
-      <c r="D100" s="120"/>
-      <c r="E100" s="121"/>
-      <c r="F100" s="118" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" s="118"/>
-      <c r="H100" s="122"/>
-      <c r="I100" s="118"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
-      <c r="R100" s="1"/>
-      <c r="S100" s="1"/>
-      <c r="T100" s="1"/>
-      <c r="U100" s="1"/>
-      <c r="V100" s="1"/>
-      <c r="W100" s="1"/>
-      <c r="X100" s="1"/>
-      <c r="Y100" s="1"/>
-      <c r="Z100" s="1"/>
-    </row>
-    <row r="101" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="118">
-        <v>3</v>
-      </c>
-      <c r="B101" s="118" t="s">
-        <v>142</v>
-      </c>
-      <c r="C101" s="119" t="s">
-        <v>103</v>
-      </c>
-      <c r="D101" s="120"/>
-      <c r="E101" s="121"/>
-      <c r="F101" s="118"/>
-      <c r="G101" s="118"/>
-      <c r="H101" s="122"/>
-      <c r="I101" s="118"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
-      <c r="R101" s="1"/>
-      <c r="S101" s="1"/>
-      <c r="T101" s="1"/>
-      <c r="U101" s="1"/>
-      <c r="V101" s="1"/>
-      <c r="W101" s="1"/>
-      <c r="X101" s="1"/>
-      <c r="Y101" s="1"/>
-      <c r="Z101" s="1"/>
+      <c r="D98" s="134"/>
+      <c r="E98" s="135"/>
+      <c r="F98" s="132"/>
+      <c r="G98" s="132"/>
+      <c r="H98" s="136"/>
+      <c r="I98" s="132"/>
+      <c r="J98" s="74"/>
+      <c r="K98" s="74"/>
+      <c r="L98" s="74"/>
+      <c r="M98" s="74"/>
+      <c r="N98" s="74"/>
+      <c r="O98" s="74"/>
+      <c r="P98" s="74"/>
+      <c r="Q98" s="74"/>
+      <c r="R98" s="74"/>
+      <c r="S98" s="74"/>
+      <c r="T98" s="74"/>
+      <c r="U98" s="74"/>
+      <c r="V98" s="74"/>
+      <c r="W98" s="74"/>
+      <c r="X98" s="74"/>
+      <c r="Y98" s="74"/>
+      <c r="Z98" s="74"/>
+    </row>
+    <row r="99" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="132"/>
+      <c r="B99" s="132" t="s">
+        <v>176</v>
+      </c>
+      <c r="C99" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="D99" s="134"/>
+      <c r="E99" s="135"/>
+      <c r="F99" s="132"/>
+      <c r="G99" s="132"/>
+      <c r="H99" s="136"/>
+      <c r="I99" s="132"/>
+      <c r="J99" s="74"/>
+      <c r="K99" s="74"/>
+      <c r="L99" s="74"/>
+      <c r="M99" s="74"/>
+      <c r="N99" s="74"/>
+      <c r="O99" s="74"/>
+      <c r="P99" s="74"/>
+      <c r="Q99" s="74"/>
+      <c r="R99" s="74"/>
+      <c r="S99" s="74"/>
+      <c r="T99" s="74"/>
+      <c r="U99" s="74"/>
+      <c r="V99" s="74"/>
+      <c r="W99" s="74"/>
+      <c r="X99" s="74"/>
+      <c r="Y99" s="74"/>
+      <c r="Z99" s="74"/>
+    </row>
+    <row r="100" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="132"/>
+      <c r="B100" s="132" t="s">
+        <v>177</v>
+      </c>
+      <c r="C100" s="133" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100" s="134"/>
+      <c r="E100" s="135"/>
+      <c r="F100" s="132"/>
+      <c r="G100" s="132"/>
+      <c r="H100" s="136"/>
+      <c r="I100" s="132"/>
+      <c r="J100" s="74"/>
+      <c r="K100" s="74"/>
+      <c r="L100" s="74"/>
+      <c r="M100" s="74"/>
+      <c r="N100" s="74"/>
+      <c r="O100" s="74"/>
+      <c r="P100" s="74"/>
+      <c r="Q100" s="74"/>
+      <c r="R100" s="74"/>
+      <c r="S100" s="74"/>
+      <c r="T100" s="74"/>
+      <c r="U100" s="74"/>
+      <c r="V100" s="74"/>
+      <c r="W100" s="74"/>
+      <c r="X100" s="74"/>
+      <c r="Y100" s="74"/>
+      <c r="Z100" s="74"/>
+    </row>
+    <row r="101" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="132"/>
+      <c r="B101" s="132" t="s">
+        <v>178</v>
+      </c>
+      <c r="C101" s="133" t="s">
+        <v>128</v>
+      </c>
+      <c r="D101" s="134"/>
+      <c r="E101" s="135"/>
+      <c r="F101" s="132"/>
+      <c r="G101" s="132"/>
+      <c r="H101" s="136"/>
+      <c r="I101" s="132"/>
+      <c r="J101" s="74"/>
+      <c r="K101" s="74"/>
+      <c r="L101" s="74"/>
+      <c r="M101" s="74"/>
+      <c r="N101" s="74"/>
+      <c r="O101" s="74"/>
+      <c r="P101" s="74"/>
+      <c r="Q101" s="74"/>
+      <c r="R101" s="74"/>
+      <c r="S101" s="74"/>
+      <c r="T101" s="74"/>
+      <c r="U101" s="74"/>
+      <c r="V101" s="74"/>
+      <c r="W101" s="74"/>
+      <c r="X101" s="74"/>
+      <c r="Y101" s="74"/>
+      <c r="Z101" s="74"/>
     </row>
     <row r="102" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="118">
-        <v>4</v>
-      </c>
-      <c r="B102" s="118" t="s">
-        <v>143</v>
-      </c>
-      <c r="C102" s="119" t="s">
-        <v>144</v>
-      </c>
-      <c r="D102" s="120"/>
-      <c r="E102" s="121"/>
-      <c r="F102" s="118"/>
-      <c r="G102" s="118"/>
-      <c r="H102" s="122"/>
-      <c r="I102" s="118"/>
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
@@ -5100,21 +5122,17 @@
       <c r="Z102" s="1"/>
     </row>
     <row r="103" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="118">
-        <v>5</v>
-      </c>
-      <c r="B103" s="118" t="s">
-        <v>145</v>
-      </c>
-      <c r="C103" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="D103" s="120"/>
-      <c r="E103" s="121"/>
-      <c r="F103" s="118"/>
-      <c r="G103" s="118"/>
-      <c r="H103" s="122"/>
-      <c r="I103" s="118"/>
+      <c r="A103" s="121" t="s">
+        <v>141</v>
+      </c>
+      <c r="B103" s="122"/>
+      <c r="C103" s="122"/>
+      <c r="D103" s="122"/>
+      <c r="E103" s="122"/>
+      <c r="F103" s="102"/>
+      <c r="G103" s="102"/>
+      <c r="H103" s="92"/>
+      <c r="I103" s="102"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
@@ -5134,21 +5152,33 @@
       <c r="Z103" s="1"/>
     </row>
     <row r="104" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="118">
+      <c r="A104" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="103" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="G104" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="B104" s="118" t="s">
-        <v>146</v>
-      </c>
-      <c r="C104" s="119" t="s">
-        <v>147</v>
-      </c>
-      <c r="D104" s="120"/>
-      <c r="E104" s="121"/>
-      <c r="F104" s="118"/>
-      <c r="G104" s="118"/>
-      <c r="H104" s="122"/>
-      <c r="I104" s="118"/>
+      <c r="H104" s="104" t="s">
+        <v>7</v>
+      </c>
+      <c r="I104" s="103" t="s">
+        <v>8</v>
+      </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
@@ -5168,15 +5198,25 @@
       <c r="Z104" s="1"/>
     </row>
     <row r="105" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="118"/>
-      <c r="B105" s="118"/>
-      <c r="C105" s="119"/>
-      <c r="D105" s="120"/>
-      <c r="E105" s="121"/>
-      <c r="F105" s="118"/>
-      <c r="G105" s="118"/>
-      <c r="H105" s="122"/>
-      <c r="I105" s="118"/>
+      <c r="A105" s="105">
+        <v>1</v>
+      </c>
+      <c r="B105" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="D105" s="107"/>
+      <c r="E105" s="108"/>
+      <c r="F105" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="109"/>
+      <c r="H105" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="I105" s="109"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
@@ -5196,15 +5236,23 @@
       <c r="Z105" s="1"/>
     </row>
     <row r="106" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
+      <c r="A106" s="111">
+        <v>2</v>
+      </c>
+      <c r="B106" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="D106" s="113"/>
+      <c r="E106" s="114"/>
+      <c r="F106" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" s="111"/>
+      <c r="H106" s="115"/>
+      <c r="I106" s="111"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
@@ -5224,15 +5272,21 @@
       <c r="Z106" s="1"/>
     </row>
     <row r="107" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
+      <c r="A107" s="111">
+        <v>3</v>
+      </c>
+      <c r="B107" s="111" t="s">
+        <v>142</v>
+      </c>
+      <c r="C107" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="D107" s="113"/>
+      <c r="E107" s="114"/>
+      <c r="F107" s="111"/>
+      <c r="G107" s="111"/>
+      <c r="H107" s="115"/>
+      <c r="I107" s="111"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
@@ -5252,15 +5306,21 @@
       <c r="Z107" s="1"/>
     </row>
     <row r="108" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
+      <c r="A108" s="111">
+        <v>4</v>
+      </c>
+      <c r="B108" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="C108" s="112" t="s">
+        <v>144</v>
+      </c>
+      <c r="D108" s="113"/>
+      <c r="E108" s="114"/>
+      <c r="F108" s="111"/>
+      <c r="G108" s="111"/>
+      <c r="H108" s="115"/>
+      <c r="I108" s="111"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
@@ -5280,15 +5340,21 @@
       <c r="Z108" s="1"/>
     </row>
     <row r="109" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
+      <c r="A109" s="111">
+        <v>5</v>
+      </c>
+      <c r="B109" s="111" t="s">
+        <v>145</v>
+      </c>
+      <c r="C109" s="112" t="s">
+        <v>128</v>
+      </c>
+      <c r="D109" s="113"/>
+      <c r="E109" s="114"/>
+      <c r="F109" s="111"/>
+      <c r="G109" s="111"/>
+      <c r="H109" s="115"/>
+      <c r="I109" s="111"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
@@ -5308,15 +5374,21 @@
       <c r="Z109" s="1"/>
     </row>
     <row r="110" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
+      <c r="A110" s="111">
+        <v>6</v>
+      </c>
+      <c r="B110" s="111" t="s">
+        <v>146</v>
+      </c>
+      <c r="C110" s="112" t="s">
+        <v>147</v>
+      </c>
+      <c r="D110" s="113"/>
+      <c r="E110" s="114"/>
+      <c r="F110" s="111"/>
+      <c r="G110" s="111"/>
+      <c r="H110" s="115"/>
+      <c r="I110" s="111"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
@@ -5336,15 +5408,15 @@
       <c r="Z110" s="1"/>
     </row>
     <row r="111" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
+      <c r="A111" s="111"/>
+      <c r="B111" s="111"/>
+      <c r="C111" s="112"/>
+      <c r="D111" s="113"/>
+      <c r="E111" s="114"/>
+      <c r="F111" s="111"/>
+      <c r="G111" s="111"/>
+      <c r="H111" s="115"/>
+      <c r="I111" s="111"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
@@ -27287,17 +27359,188 @@
       <c r="Y894" s="1"/>
       <c r="Z894" s="1"/>
     </row>
+    <row r="895" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A895" s="1"/>
+      <c r="B895" s="1"/>
+      <c r="C895" s="1"/>
+      <c r="D895" s="1"/>
+      <c r="E895" s="1"/>
+      <c r="F895" s="1"/>
+      <c r="G895" s="1"/>
+      <c r="H895" s="1"/>
+      <c r="I895" s="1"/>
+      <c r="J895" s="1"/>
+      <c r="K895" s="1"/>
+      <c r="L895" s="1"/>
+      <c r="M895" s="1"/>
+      <c r="N895" s="1"/>
+      <c r="O895" s="1"/>
+      <c r="P895" s="1"/>
+      <c r="Q895" s="1"/>
+      <c r="R895" s="1"/>
+      <c r="S895" s="1"/>
+      <c r="T895" s="1"/>
+      <c r="U895" s="1"/>
+      <c r="V895" s="1"/>
+      <c r="W895" s="1"/>
+      <c r="X895" s="1"/>
+      <c r="Y895" s="1"/>
+      <c r="Z895" s="1"/>
+    </row>
+    <row r="896" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A896" s="1"/>
+      <c r="B896" s="1"/>
+      <c r="C896" s="1"/>
+      <c r="D896" s="1"/>
+      <c r="E896" s="1"/>
+      <c r="F896" s="1"/>
+      <c r="G896" s="1"/>
+      <c r="H896" s="1"/>
+      <c r="I896" s="1"/>
+      <c r="J896" s="1"/>
+      <c r="K896" s="1"/>
+      <c r="L896" s="1"/>
+      <c r="M896" s="1"/>
+      <c r="N896" s="1"/>
+      <c r="O896" s="1"/>
+      <c r="P896" s="1"/>
+      <c r="Q896" s="1"/>
+      <c r="R896" s="1"/>
+      <c r="S896" s="1"/>
+      <c r="T896" s="1"/>
+      <c r="U896" s="1"/>
+      <c r="V896" s="1"/>
+      <c r="W896" s="1"/>
+      <c r="X896" s="1"/>
+      <c r="Y896" s="1"/>
+      <c r="Z896" s="1"/>
+    </row>
+    <row r="897" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A897" s="1"/>
+      <c r="B897" s="1"/>
+      <c r="C897" s="1"/>
+      <c r="D897" s="1"/>
+      <c r="E897" s="1"/>
+      <c r="F897" s="1"/>
+      <c r="G897" s="1"/>
+      <c r="H897" s="1"/>
+      <c r="I897" s="1"/>
+      <c r="J897" s="1"/>
+      <c r="K897" s="1"/>
+      <c r="L897" s="1"/>
+      <c r="M897" s="1"/>
+      <c r="N897" s="1"/>
+      <c r="O897" s="1"/>
+      <c r="P897" s="1"/>
+      <c r="Q897" s="1"/>
+      <c r="R897" s="1"/>
+      <c r="S897" s="1"/>
+      <c r="T897" s="1"/>
+      <c r="U897" s="1"/>
+      <c r="V897" s="1"/>
+      <c r="W897" s="1"/>
+      <c r="X897" s="1"/>
+      <c r="Y897" s="1"/>
+      <c r="Z897" s="1"/>
+    </row>
+    <row r="898" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A898" s="1"/>
+      <c r="B898" s="1"/>
+      <c r="C898" s="1"/>
+      <c r="D898" s="1"/>
+      <c r="E898" s="1"/>
+      <c r="F898" s="1"/>
+      <c r="G898" s="1"/>
+      <c r="H898" s="1"/>
+      <c r="I898" s="1"/>
+      <c r="J898" s="1"/>
+      <c r="K898" s="1"/>
+      <c r="L898" s="1"/>
+      <c r="M898" s="1"/>
+      <c r="N898" s="1"/>
+      <c r="O898" s="1"/>
+      <c r="P898" s="1"/>
+      <c r="Q898" s="1"/>
+      <c r="R898" s="1"/>
+      <c r="S898" s="1"/>
+      <c r="T898" s="1"/>
+      <c r="U898" s="1"/>
+      <c r="V898" s="1"/>
+      <c r="W898" s="1"/>
+      <c r="X898" s="1"/>
+      <c r="Y898" s="1"/>
+      <c r="Z898" s="1"/>
+    </row>
+    <row r="899" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A899" s="1"/>
+      <c r="B899" s="1"/>
+      <c r="C899" s="1"/>
+      <c r="D899" s="1"/>
+      <c r="E899" s="1"/>
+      <c r="F899" s="1"/>
+      <c r="G899" s="1"/>
+      <c r="H899" s="1"/>
+      <c r="I899" s="1"/>
+      <c r="J899" s="1"/>
+      <c r="K899" s="1"/>
+      <c r="L899" s="1"/>
+      <c r="M899" s="1"/>
+      <c r="N899" s="1"/>
+      <c r="O899" s="1"/>
+      <c r="P899" s="1"/>
+      <c r="Q899" s="1"/>
+      <c r="R899" s="1"/>
+      <c r="S899" s="1"/>
+      <c r="T899" s="1"/>
+      <c r="U899" s="1"/>
+      <c r="V899" s="1"/>
+      <c r="W899" s="1"/>
+      <c r="X899" s="1"/>
+      <c r="Y899" s="1"/>
+      <c r="Z899" s="1"/>
+    </row>
+    <row r="900" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A900" s="1"/>
+      <c r="B900" s="1"/>
+      <c r="C900" s="1"/>
+      <c r="D900" s="1"/>
+      <c r="E900" s="1"/>
+      <c r="F900" s="1"/>
+      <c r="G900" s="1"/>
+      <c r="H900" s="1"/>
+      <c r="I900" s="1"/>
+      <c r="J900" s="1"/>
+      <c r="K900" s="1"/>
+      <c r="L900" s="1"/>
+      <c r="M900" s="1"/>
+      <c r="N900" s="1"/>
+      <c r="O900" s="1"/>
+      <c r="P900" s="1"/>
+      <c r="Q900" s="1"/>
+      <c r="R900" s="1"/>
+      <c r="S900" s="1"/>
+      <c r="T900" s="1"/>
+      <c r="U900" s="1"/>
+      <c r="V900" s="1"/>
+      <c r="W900" s="1"/>
+      <c r="X900" s="1"/>
+      <c r="Y900" s="1"/>
+      <c r="Z900" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A69:E69"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{BBC288FD-445C-7341-9151-7E25FDADAAE2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -27307,7 +27550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712FD042-3309-7E48-8072-BAFA17154E79}">
   <dimension ref="A3:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="193" zoomScaleNormal="193" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="193" zoomScaleNormal="193" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -27321,190 +27564,190 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="121" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="109"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="102"/>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="110" t="s">
+      <c r="E4" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="110" t="s">
+      <c r="F4" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="110" t="s">
+      <c r="G4" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="111" t="s">
+      <c r="H4" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="110" t="s">
+      <c r="I4" s="103" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="112">
+      <c r="A5" s="105">
         <v>1</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="114"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="116" t="s">
+      <c r="D5" s="107"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="116"/>
-      <c r="H5" s="117" t="s">
+      <c r="G5" s="109"/>
+      <c r="H5" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="116"/>
+      <c r="I5" s="109"/>
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="118">
+      <c r="A6" s="111">
         <v>2</v>
       </c>
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="120"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="118" t="s">
+      <c r="D6" s="113"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="118"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="118"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="111"/>
     </row>
     <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="118">
+      <c r="A7" s="111">
         <v>3</v>
       </c>
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="119" t="s">
+      <c r="C7" s="112" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="120"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="118"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="111"/>
       <c r="L7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="118">
+      <c r="A8" s="111">
         <v>4</v>
       </c>
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="119" t="s">
+      <c r="C8" s="112" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="120"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="118"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="111"/>
     </row>
     <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="118">
+      <c r="A9" s="111">
         <v>5</v>
       </c>
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="111" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="118" t="s">
+      <c r="D9" s="113"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="111" t="s">
         <v>153</v>
       </c>
-      <c r="L9" s="128" t="s">
+      <c r="L9" s="118" t="s">
         <v>149</v>
       </c>
-      <c r="M9" s="129"/>
+      <c r="M9" s="119"/>
     </row>
     <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="118"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="118" t="s">
+      <c r="A10" s="111"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="111" t="s">
         <v>171</v>
       </c>
-      <c r="L10" s="128" t="s">
+      <c r="L10" s="118" t="s">
         <v>167</v>
       </c>
-      <c r="M10" s="129"/>
+      <c r="M10" s="119"/>
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="118"/>
-      <c r="B11" s="118"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="118"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="129"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="111"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="119"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L12" s="128"/>
-      <c r="M12" s="129"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="119"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L13" s="128"/>
-      <c r="M13" s="129"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="119"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L14" s="128" t="s">
+      <c r="L14" s="118" t="s">
         <v>168</v>
       </c>
-      <c r="M14" s="129" t="s">
+      <c r="M14" s="119" t="s">
         <v>169</v>
       </c>
     </row>
@@ -27538,25 +27781,25 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D16" s="128" t="s">
+      <c r="D16" s="118" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="128" t="s">
+      <c r="E16" s="118" t="s">
         <v>154</v>
       </c>
-      <c r="F16" s="128" t="s">
+      <c r="F16" s="118" t="s">
         <v>154</v>
       </c>
-      <c r="G16" s="128" t="s">
+      <c r="G16" s="118" t="s">
         <v>154</v>
       </c>
-      <c r="H16" s="128" t="s">
+      <c r="H16" s="118" t="s">
         <v>154</v>
       </c>
-      <c r="I16" s="128" t="s">
+      <c r="I16" s="118" t="s">
         <v>154</v>
       </c>
-      <c r="J16" s="128" t="s">
+      <c r="J16" s="118" t="s">
         <v>154</v>
       </c>
     </row>
@@ -27584,25 +27827,25 @@
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D18" s="128" t="s">
+      <c r="D18" s="118" t="s">
         <v>155</v>
       </c>
-      <c r="E18" s="128" t="s">
+      <c r="E18" s="118" t="s">
         <v>155</v>
       </c>
-      <c r="F18" s="128" t="s">
+      <c r="F18" s="118" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="128" t="s">
+      <c r="G18" s="118" t="s">
         <v>155</v>
       </c>
-      <c r="H18" s="128" t="s">
+      <c r="H18" s="118" t="s">
         <v>155</v>
       </c>
-      <c r="I18" s="128" t="s">
+      <c r="I18" s="118" t="s">
         <v>155</v>
       </c>
-      <c r="J18" s="128" t="s">
+      <c r="J18" s="118" t="s">
         <v>155</v>
       </c>
     </row>
@@ -27630,25 +27873,25 @@
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D20" s="128" t="s">
+      <c r="D20" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="E20" s="128" t="s">
+      <c r="E20" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="F20" s="128" t="s">
+      <c r="F20" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="G20" s="128" t="s">
+      <c r="G20" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="H20" s="128" t="s">
+      <c r="H20" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="I20" s="128" t="s">
+      <c r="I20" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="J20" s="128" t="s">
+      <c r="J20" s="118" t="s">
         <v>156</v>
       </c>
     </row>
@@ -27665,16 +27908,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1007"/>
+  <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="80.83203125" customWidth="1"/>
+    <col min="2" max="2" width="97.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
@@ -28224,18 +28467,14 @@
       <c r="Z16" s="74"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="82">
-        <v>9</v>
-      </c>
-      <c r="B17" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="74" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="74" t="s">
-        <v>108</v>
-      </c>
+      <c r="A17" s="120" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
       <c r="E17" s="74"/>
       <c r="F17" s="74"/>
       <c r="G17" s="74"/>
@@ -28261,10 +28500,10 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="82">
-        <v>10</v>
-      </c>
-      <c r="B18" s="83" t="s">
-        <v>65</v>
+        <v>9</v>
+      </c>
+      <c r="B18" s="84" t="s">
+        <v>64</v>
       </c>
       <c r="C18" s="74" t="s">
         <v>106</v>
@@ -28297,10 +28536,10 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="82">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="74" t="s">
         <v>106</v>
@@ -28333,10 +28572,10 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="82">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="74" t="s">
         <v>106</v>
@@ -28369,10 +28608,10 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="82">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="74" t="s">
         <v>106</v>
@@ -28404,17 +28643,17 @@
       <c r="Z21" s="74"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="80">
-        <v>14</v>
-      </c>
-      <c r="B22" s="81" t="s">
-        <v>69</v>
+      <c r="A22" s="82">
+        <v>13</v>
+      </c>
+      <c r="B22" s="83" t="s">
+        <v>68</v>
       </c>
       <c r="C22" s="74" t="s">
         <v>106</v>
       </c>
       <c r="D22" s="74" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E22" s="74"/>
       <c r="F22" s="74"/>
@@ -28441,16 +28680,16 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="80">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="81" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="C23" s="74" t="s">
         <v>106</v>
       </c>
       <c r="D23" s="74" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E23" s="74"/>
       <c r="F23" s="74"/>
@@ -28477,16 +28716,16 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="80">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="81" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C24" s="74" t="s">
         <v>106</v>
       </c>
       <c r="D24" s="74" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E24" s="74"/>
       <c r="F24" s="74"/>
@@ -28513,16 +28752,16 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="80">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="74" t="s">
         <v>106</v>
       </c>
       <c r="D25" s="74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E25" s="74"/>
       <c r="F25" s="74"/>
@@ -28549,16 +28788,16 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="80">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="74" t="s">
         <v>106</v>
       </c>
       <c r="D26" s="74" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E26" s="74"/>
       <c r="F26" s="74"/>
@@ -28585,16 +28824,16 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="80">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" s="81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="74" t="s">
         <v>106</v>
       </c>
       <c r="D27" s="74" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E27" s="74"/>
       <c r="F27" s="74"/>
@@ -28621,16 +28860,16 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="80">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="81" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="74" t="s">
         <v>106</v>
       </c>
       <c r="D28" s="74" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E28" s="74"/>
       <c r="F28" s="74"/>
@@ -28657,13 +28896,17 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="80">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
+        <v>74</v>
+      </c>
+      <c r="C29" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="74" t="s">
+        <v>108</v>
+      </c>
       <c r="E29" s="74"/>
       <c r="F29" s="74"/>
       <c r="G29" s="74"/>
@@ -28689,10 +28932,10 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="80">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="81" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="74"/>
       <c r="D30" s="74"/>
@@ -28721,10 +28964,10 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="80">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="81" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="74"/>
       <c r="D31" s="74"/>
@@ -28753,10 +28996,10 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="80">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="81" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" s="74"/>
       <c r="D32" s="74"/>
@@ -28785,10 +29028,10 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="80">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" s="81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" s="74"/>
       <c r="D33" s="74"/>
@@ -28817,13 +29060,17 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="80">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
+        <v>79</v>
+      </c>
+      <c r="C34" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="74" t="s">
+        <v>109</v>
+      </c>
       <c r="E34" s="74"/>
       <c r="F34" s="74"/>
       <c r="G34" s="74"/>
@@ -28849,10 +29096,10 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="80">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="74"/>
       <c r="D35" s="74"/>
@@ -28881,10 +29128,10 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="80">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" s="81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="74"/>
       <c r="D36" s="74"/>
@@ -28913,10 +29160,10 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="80">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37" s="81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C37" s="74"/>
       <c r="D37" s="74"/>
@@ -28945,10 +29192,10 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="80">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38" s="81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" s="74"/>
       <c r="D38" s="74"/>
@@ -28977,10 +29224,10 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="80">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39" s="81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C39" s="74"/>
       <c r="D39" s="74"/>
@@ -29009,10 +29256,10 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="80">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="81" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C40" s="74"/>
       <c r="D40" s="74"/>
@@ -29041,10 +29288,10 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="80">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C41" s="74"/>
       <c r="D41" s="74"/>
@@ -29073,10 +29320,10 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="80">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42" s="74"/>
       <c r="D42" s="74"/>
@@ -29104,8 +29351,12 @@
       <c r="Z42" s="74"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A43" s="74"/>
-      <c r="B43" s="74"/>
+      <c r="A43" s="80">
+        <v>34</v>
+      </c>
+      <c r="B43" s="81" t="s">
+        <v>88</v>
+      </c>
       <c r="C43" s="74"/>
       <c r="D43" s="74"/>
       <c r="E43" s="74"/>
@@ -56123,6 +56374,34 @@
       <c r="Y1007" s="74"/>
       <c r="Z1007" s="74"/>
     </row>
+    <row r="1008" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1008" s="74"/>
+      <c r="B1008" s="74"/>
+      <c r="C1008" s="74"/>
+      <c r="D1008" s="74"/>
+      <c r="E1008" s="74"/>
+      <c r="F1008" s="74"/>
+      <c r="G1008" s="74"/>
+      <c r="H1008" s="74"/>
+      <c r="I1008" s="74"/>
+      <c r="J1008" s="74"/>
+      <c r="K1008" s="74"/>
+      <c r="L1008" s="74"/>
+      <c r="M1008" s="74"/>
+      <c r="N1008" s="74"/>
+      <c r="O1008" s="74"/>
+      <c r="P1008" s="74"/>
+      <c r="Q1008" s="74"/>
+      <c r="R1008" s="74"/>
+      <c r="S1008" s="74"/>
+      <c r="T1008" s="74"/>
+      <c r="U1008" s="74"/>
+      <c r="V1008" s="74"/>
+      <c r="W1008" s="74"/>
+      <c r="X1008" s="74"/>
+      <c r="Y1008" s="74"/>
+      <c r="Z1008" s="74"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
